--- a/DateBase/orders/International Ever Green_2025-11-14.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-14.xlsx
@@ -951,6 +951,9 @@
       <c r="G2" t="str">
         <v>0566612512203030405510101010151010101535155551010101051510151015101010555105551010151010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
